--- a/Home/fii/AnaliseFII_Completa.xlsx
+++ b/Home/fii/AnaliseFII_Completa.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Report_1" localSheetId="0">Plan1!$A$1:$M$12</definedName>
+    <definedName name="Report_1" localSheetId="0">Plan1!$A$1:$M$223</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="236">
   <si>
     <t>Ticker</t>
   </si>
@@ -126,13 +126,646 @@
   </si>
   <si>
     <t>BBIM11</t>
+  </si>
+  <si>
+    <t>BCIA11</t>
+  </si>
+  <si>
+    <t>BZLI11</t>
+  </si>
+  <si>
+    <t>CARE11</t>
+  </si>
+  <si>
+    <t>BRCO11</t>
+  </si>
+  <si>
+    <t>BRIM11</t>
+  </si>
+  <si>
+    <t>CRFF11</t>
+  </si>
+  <si>
+    <t>CXRI11</t>
+  </si>
+  <si>
+    <t>CPTS11</t>
+  </si>
+  <si>
+    <t>CBOP11</t>
+  </si>
+  <si>
+    <t>GRLV11</t>
+  </si>
+  <si>
+    <t>HGFF11</t>
+  </si>
+  <si>
+    <t>HGLG11</t>
+  </si>
+  <si>
+    <t>HGPO11</t>
+  </si>
+  <si>
+    <t>HGRE11</t>
+  </si>
+  <si>
+    <t>HGCR11</t>
+  </si>
+  <si>
+    <t>HGRU11</t>
+  </si>
+  <si>
+    <t>DLMT11</t>
+  </si>
+  <si>
+    <t>DAMT11</t>
+  </si>
+  <si>
+    <t>DOVL11</t>
+  </si>
+  <si>
+    <t>ERPA11</t>
+  </si>
+  <si>
+    <t>KINP11</t>
+  </si>
+  <si>
+    <t>VRTA11</t>
+  </si>
+  <si>
+    <t>BMII11</t>
+  </si>
+  <si>
+    <t>BTCR11</t>
+  </si>
+  <si>
+    <t>MTRS11</t>
+  </si>
+  <si>
+    <t>ANCR11</t>
+  </si>
+  <si>
+    <t>FAED11</t>
+  </si>
+  <si>
+    <t>BMLC11</t>
+  </si>
+  <si>
+    <t>BPRP11</t>
+  </si>
+  <si>
+    <t>BRCR11</t>
+  </si>
+  <si>
+    <t>FEXC11</t>
+  </si>
+  <si>
+    <t>BCFF11</t>
+  </si>
+  <si>
+    <t>FCFL11</t>
+  </si>
+  <si>
+    <t>CNES11</t>
+  </si>
+  <si>
+    <t>CEOC11</t>
+  </si>
+  <si>
+    <t>THRA11</t>
+  </si>
+  <si>
+    <t>FAMB11</t>
+  </si>
+  <si>
+    <t>EDGA11</t>
+  </si>
+  <si>
+    <t>ELDO11</t>
+  </si>
+  <si>
+    <t>FLRP11</t>
+  </si>
+  <si>
+    <t>HCRI11</t>
+  </si>
+  <si>
+    <t>NSLU11</t>
+  </si>
+  <si>
+    <t>HTMX11</t>
+  </si>
+  <si>
+    <t>MAXR11</t>
+  </si>
+  <si>
+    <t>NCHB11</t>
+  </si>
+  <si>
+    <t>NVHO11</t>
+  </si>
+  <si>
+    <t>PQDP11</t>
+  </si>
+  <si>
+    <t>PATB11</t>
+  </si>
+  <si>
+    <t>PRSV11</t>
+  </si>
+  <si>
+    <t>RBRM11</t>
+  </si>
+  <si>
+    <t>RBRR11</t>
+  </si>
+  <si>
+    <t>JRDM11</t>
+  </si>
+  <si>
+    <t>SHDP11</t>
+  </si>
+  <si>
+    <t>SAIC11</t>
+  </si>
+  <si>
+    <t>TBOF11</t>
+  </si>
+  <si>
+    <t>ALMI11</t>
+  </si>
+  <si>
+    <t>TRNT11</t>
+  </si>
+  <si>
+    <t>RECT11</t>
+  </si>
+  <si>
+    <t>UBSR11</t>
+  </si>
+  <si>
+    <t>VLOL11</t>
+  </si>
+  <si>
+    <t>OUFF11</t>
+  </si>
+  <si>
+    <t>WTSP11</t>
+  </si>
+  <si>
+    <t>LVBI11</t>
+  </si>
+  <si>
+    <t>BARI11</t>
+  </si>
+  <si>
+    <t>BBVJ11</t>
+  </si>
+  <si>
+    <t>BRHT11</t>
+  </si>
+  <si>
+    <t>BPFF11</t>
+  </si>
+  <si>
+    <t>BVAR11</t>
+  </si>
+  <si>
+    <t>CXCE11</t>
+  </si>
+  <si>
+    <t>CXTL11</t>
+  </si>
+  <si>
+    <t>CTXT11</t>
+  </si>
+  <si>
+    <t>CJFI11</t>
+  </si>
+  <si>
+    <t>FLMA11</t>
+  </si>
+  <si>
+    <t>EDFO11</t>
+  </si>
+  <si>
+    <t>EURO11</t>
+  </si>
+  <si>
+    <t>GESE11</t>
+  </si>
+  <si>
+    <t>FIGS11</t>
+  </si>
+  <si>
+    <t>ABCP11</t>
+  </si>
+  <si>
+    <t>GTWR11</t>
+  </si>
+  <si>
+    <t>HBTT11</t>
+  </si>
+  <si>
+    <t>HUSC11</t>
+  </si>
+  <si>
+    <t>FIIB11</t>
+  </si>
+  <si>
+    <t>FINF11</t>
+  </si>
+  <si>
+    <t>FMOF11</t>
+  </si>
+  <si>
+    <t>MBRF11</t>
+  </si>
+  <si>
+    <t>MGFF11</t>
+  </si>
+  <si>
+    <t>MVFI11</t>
+  </si>
+  <si>
+    <t>NPAR11</t>
+  </si>
+  <si>
+    <t>OULG11</t>
+  </si>
+  <si>
+    <t>PABY11</t>
+  </si>
+  <si>
+    <t>FPNG11</t>
+  </si>
+  <si>
+    <t>ESTQ11</t>
+  </si>
+  <si>
+    <t>VPSI11</t>
+  </si>
+  <si>
+    <t>FPAB11</t>
+  </si>
+  <si>
+    <t>RBRF11</t>
+  </si>
+  <si>
+    <t>RBRY11</t>
+  </si>
+  <si>
+    <t>RBRP11</t>
+  </si>
+  <si>
+    <t>FFCI11</t>
+  </si>
+  <si>
+    <t>RBED11</t>
+  </si>
+  <si>
+    <t>RBVA11</t>
+  </si>
+  <si>
+    <t>RNGO11</t>
+  </si>
+  <si>
+    <t>SFND11</t>
+  </si>
+  <si>
+    <t>FISC11</t>
+  </si>
+  <si>
+    <t>SCPF11</t>
+  </si>
+  <si>
+    <t>SDIL11</t>
+  </si>
+  <si>
+    <t>SHPH11</t>
+  </si>
+  <si>
+    <t>TGAR11</t>
+  </si>
+  <si>
+    <t>ONEF11</t>
+  </si>
+  <si>
+    <t>TORM11</t>
+  </si>
+  <si>
+    <t>TOUR11</t>
+  </si>
+  <si>
+    <t>FVBI11</t>
+  </si>
+  <si>
+    <t>VERE11</t>
+  </si>
+  <si>
+    <t>FVPQ11</t>
+  </si>
+  <si>
+    <t>FIVN11</t>
+  </si>
+  <si>
+    <t>VTLT11</t>
+  </si>
+  <si>
+    <t>VSHO11</t>
+  </si>
+  <si>
+    <t>IBFF11</t>
+  </si>
+  <si>
+    <t>VTPL11</t>
+  </si>
+  <si>
+    <t>CVBI11</t>
+  </si>
+  <si>
+    <t>ARRI11</t>
+  </si>
+  <si>
+    <t>IRDM11</t>
+  </si>
+  <si>
+    <t>KFOF11</t>
+  </si>
+  <si>
+    <t>OUCY11</t>
+  </si>
+  <si>
+    <t>GSFI11</t>
+  </si>
+  <si>
+    <t>GGRC11</t>
+  </si>
+  <si>
+    <t>RCFA11</t>
+  </si>
+  <si>
+    <t>HABT11</t>
+  </si>
+  <si>
+    <t>ATCR11</t>
+  </si>
+  <si>
+    <t>HCTR11</t>
+  </si>
+  <si>
+    <t>ATSA11</t>
+  </si>
+  <si>
+    <t>HGBS11</t>
+  </si>
+  <si>
+    <t>HRDF11</t>
+  </si>
+  <si>
+    <t>HMOC11</t>
+  </si>
+  <si>
+    <t>FOFT11</t>
+  </si>
+  <si>
+    <t>HFOF11</t>
+  </si>
+  <si>
+    <t>TFOF11</t>
+  </si>
+  <si>
+    <t>HSML11</t>
+  </si>
+  <si>
+    <t>PRGD11</t>
+  </si>
+  <si>
+    <t>BICR11</t>
+  </si>
+  <si>
+    <t>RBBV11</t>
+  </si>
+  <si>
+    <t>JPPA11</t>
+  </si>
+  <si>
+    <t>JPPC11</t>
+  </si>
+  <si>
+    <t>JSRE11</t>
+  </si>
+  <si>
+    <t>JTPR11</t>
+  </si>
+  <si>
+    <t>KNHY11</t>
+  </si>
+  <si>
+    <t>KNRE11</t>
+  </si>
+  <si>
+    <t>KNIP11</t>
+  </si>
+  <si>
+    <t>KNRI11</t>
+  </si>
+  <si>
+    <t>KNCR11</t>
+  </si>
+  <si>
+    <t>LATR11</t>
+  </si>
+  <si>
+    <t>LASC11</t>
+  </si>
+  <si>
+    <t>LOFT11</t>
+  </si>
+  <si>
+    <t>DMAC11</t>
+  </si>
+  <si>
+    <t>MALL11</t>
+  </si>
+  <si>
+    <t>MXRF11</t>
+  </si>
+  <si>
+    <t>MFII11</t>
+  </si>
+  <si>
+    <t>PRTS11</t>
+  </si>
+  <si>
+    <t>SHOP11</t>
+  </si>
+  <si>
+    <t>DRIT11</t>
+  </si>
+  <si>
+    <t>NEWL11</t>
+  </si>
+  <si>
+    <t>NVIF11</t>
+  </si>
+  <si>
+    <t>FTCE11</t>
+  </si>
+  <si>
+    <t>OUJP11</t>
+  </si>
+  <si>
+    <t>ORPD11</t>
+  </si>
+  <si>
+    <t>PATC11</t>
+  </si>
+  <si>
+    <t>PRSN11</t>
+  </si>
+  <si>
+    <t>PLRI11</t>
+  </si>
+  <si>
+    <t>PORD11</t>
+  </si>
+  <si>
+    <t>PBLV11</t>
+  </si>
+  <si>
+    <t>RSPD11</t>
+  </si>
+  <si>
+    <t>RBDS11</t>
+  </si>
+  <si>
+    <t>RBGS11</t>
+  </si>
+  <si>
+    <t>RBCO11</t>
+  </si>
+  <si>
+    <t>FIIP11</t>
+  </si>
+  <si>
+    <t>RBRD11</t>
+  </si>
+  <si>
+    <t>RCRI11</t>
+  </si>
+  <si>
+    <t>RBTS11</t>
+  </si>
+  <si>
+    <t>DOMC11</t>
+  </si>
+  <si>
+    <t>RDES11</t>
+  </si>
+  <si>
+    <t>RBIV11</t>
+  </si>
+  <si>
+    <t>RBCB11</t>
+  </si>
+  <si>
+    <t>RBVO11</t>
+  </si>
+  <si>
+    <t>RBFF11</t>
+  </si>
+  <si>
+    <t>SAAG11</t>
+  </si>
+  <si>
+    <t>SADI11</t>
+  </si>
+  <si>
+    <t>FISD11</t>
+  </si>
+  <si>
+    <t>WPLZ11</t>
+  </si>
+  <si>
+    <t>REIT11</t>
+  </si>
+  <si>
+    <t>SPTW11</t>
+  </si>
+  <si>
+    <t>SPAF11</t>
+  </si>
+  <si>
+    <t>STRX11</t>
+  </si>
+  <si>
+    <t>TSNC11</t>
+  </si>
+  <si>
+    <t>TCPF11</t>
+  </si>
+  <si>
+    <t>XTED11</t>
+  </si>
+  <si>
+    <t>TRXF11</t>
+  </si>
+  <si>
+    <t>TRXL11</t>
+  </si>
+  <si>
+    <t>V2CR11</t>
+  </si>
+  <si>
+    <t>VGIR11</t>
+  </si>
+  <si>
+    <t>VLJS11</t>
+  </si>
+  <si>
+    <t>VILG11</t>
+  </si>
+  <si>
+    <t>VISC11</t>
+  </si>
+  <si>
+    <t>VOTS11</t>
+  </si>
+  <si>
+    <t>VXXV11</t>
+  </si>
+  <si>
+    <t>XPCM11</t>
+  </si>
+  <si>
+    <t>XPCI11</t>
+  </si>
+  <si>
+    <t>XPHT11</t>
+  </si>
+  <si>
+    <t>XPIN11</t>
+  </si>
+  <si>
+    <t>XPLG11</t>
+  </si>
+  <si>
+    <t>XPML11</t>
+  </si>
+  <si>
+    <t>XPSF11</t>
+  </si>
+  <si>
+    <t>YCHY11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,19 +774,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Impact"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Impact"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,13 +816,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,10 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -442,7 +1089,7 @@
     <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
@@ -945,6 +1592,8657 @@
         <v>962</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>41.364699999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>66989.679999999993</v>
+      </c>
+      <c r="I13" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4059.61</v>
+      </c>
+      <c r="K13" s="3">
+        <v>62930.07</v>
+      </c>
+      <c r="L13" s="3">
+        <v>6.4438000000000004</v>
+      </c>
+      <c r="M13" s="3">
+        <v>149.78999328613199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>50568.18</v>
+      </c>
+      <c r="I14" s="3">
+        <v>50747.15</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>50568.18</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>15.800000190734799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>50966.78</v>
+      </c>
+      <c r="I15" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>50966.78</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-2.58E-2</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.29999995231628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.077</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.9391</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.8782000000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.6158999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>48351.83</v>
+      </c>
+      <c r="I18" s="3">
+        <v>50935.68</v>
+      </c>
+      <c r="J18" s="3">
+        <v>851.83</v>
+      </c>
+      <c r="K18" s="3">
+        <v>47500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-5.3400000000000003E-2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>92.110000610351506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3">
+        <v>88</v>
+      </c>
+      <c r="F19" s="3">
+        <v>518.06240000000003</v>
+      </c>
+      <c r="G19" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>62454.78</v>
+      </c>
+      <c r="I19" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4221.07</v>
+      </c>
+      <c r="K19" s="3">
+        <v>58233.71</v>
+      </c>
+      <c r="L19" s="3">
+        <v>4.4569000000000001</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.02</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5.84</v>
+      </c>
+      <c r="F21" s="3">
+        <v>37.112000000000002</v>
+      </c>
+      <c r="G21" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>67540.31</v>
+      </c>
+      <c r="I21" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3909.12</v>
+      </c>
+      <c r="K21" s="3">
+        <v>63631.19</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6.6849999999999996</v>
+      </c>
+      <c r="M21" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4.26</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>40.33</v>
+      </c>
+      <c r="G22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>67839.64</v>
+      </c>
+      <c r="I22" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3763.3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>64076.34</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6.8162000000000003</v>
+      </c>
+      <c r="M22" s="3">
+        <v>121.33000183105401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G23" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>48795.48</v>
+      </c>
+      <c r="I23" s="3">
+        <v>50372.19</v>
+      </c>
+      <c r="J23" s="3">
+        <v>203.25</v>
+      </c>
+      <c r="K23" s="3">
+        <v>48592.23</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-3.2300000000000002E-2</v>
+      </c>
+      <c r="M23" s="3">
+        <v>102.08999633789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4.53</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F24" s="3">
+        <v>93.531999999999996</v>
+      </c>
+      <c r="G24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>61835.69</v>
+      </c>
+      <c r="I24" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3030.58</v>
+      </c>
+      <c r="K24" s="3">
+        <v>58805.11</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4.1856</v>
+      </c>
+      <c r="M24" s="3">
+        <v>159.99000549316401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5.01</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9.76</v>
+      </c>
+      <c r="F25" s="3">
+        <v>89.861000000000004</v>
+      </c>
+      <c r="G25" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>68164.12</v>
+      </c>
+      <c r="I25" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2718.19</v>
+      </c>
+      <c r="K25" s="3">
+        <v>65445.93</v>
+      </c>
+      <c r="L25" s="3">
+        <v>6.9583000000000004</v>
+      </c>
+      <c r="M25" s="3">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="F26" s="3">
+        <v>126.69799999999999</v>
+      </c>
+      <c r="G26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>67766.86</v>
+      </c>
+      <c r="I26" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2926.78</v>
+      </c>
+      <c r="K26" s="3">
+        <v>64840.08</v>
+      </c>
+      <c r="L26" s="3">
+        <v>6.7843</v>
+      </c>
+      <c r="M26" s="3">
+        <v>169.78999328613199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9.17</v>
+      </c>
+      <c r="F27" s="3">
+        <v>70.539000000000001</v>
+      </c>
+      <c r="G27" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>57582.2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3927.84</v>
+      </c>
+      <c r="K27" s="3">
+        <v>53654.35</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="M27" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="F28" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>58493.19</v>
+      </c>
+      <c r="I28" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3795.29</v>
+      </c>
+      <c r="K28" s="3">
+        <v>54697.9</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2.7212000000000001</v>
+      </c>
+      <c r="M28" s="3">
+        <v>119.199996948242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5.65</v>
+      </c>
+      <c r="E34" s="3">
+        <v>11.79</v>
+      </c>
+      <c r="F34" s="3">
+        <v>104.4853</v>
+      </c>
+      <c r="G34" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H34" s="3">
+        <v>58551.47</v>
+      </c>
+      <c r="I34" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J34" s="3">
+        <v>4546.75</v>
+      </c>
+      <c r="K34" s="3">
+        <v>54004.72</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2.7467000000000001</v>
+      </c>
+      <c r="M34" s="3">
+        <v>124.040000915527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.768</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3.7313000000000001</v>
+      </c>
+      <c r="E36" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8.35</v>
+      </c>
+      <c r="G36" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>54323.33</v>
+      </c>
+      <c r="I36" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3729</v>
+      </c>
+      <c r="K36" s="3">
+        <v>50594.33</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="M36" s="3">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1.5467</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4.6205999999999996</v>
+      </c>
+      <c r="D39" s="3">
+        <v>9.3005999999999993</v>
+      </c>
+      <c r="E39" s="3">
+        <v>18.2727</v>
+      </c>
+      <c r="F39" s="3">
+        <v>146.87710000000001</v>
+      </c>
+      <c r="G39" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>66310.17</v>
+      </c>
+      <c r="I39" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3979.69</v>
+      </c>
+      <c r="K39" s="3">
+        <v>62330.49</v>
+      </c>
+      <c r="L39" s="3">
+        <v>6.1459999999999999</v>
+      </c>
+      <c r="M39" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="3">
+        <v>106.76999664306599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2.7475999999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15.3276</v>
+      </c>
+      <c r="F42" s="3">
+        <v>84.150499999999994</v>
+      </c>
+      <c r="G42" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>44301</v>
+      </c>
+      <c r="I42" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J42" s="3">
+        <v>7461.87</v>
+      </c>
+      <c r="K42" s="3">
+        <v>36839.129999999997</v>
+      </c>
+      <c r="L42" s="3">
+        <v>-0.1802</v>
+      </c>
+      <c r="M42" s="3">
+        <v>91.889999389648395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4.7664999999999997</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8.7665000000000006</v>
+      </c>
+      <c r="F43" s="3">
+        <v>116.4254</v>
+      </c>
+      <c r="G43" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>58355.8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3912.32</v>
+      </c>
+      <c r="K43" s="3">
+        <v>54443.48</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2.661</v>
+      </c>
+      <c r="M43" s="3">
+        <v>112.59999847412099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3.34</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6.52</v>
+      </c>
+      <c r="F44" s="3">
+        <v>78.016000000000005</v>
+      </c>
+      <c r="G44" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>64751.15</v>
+      </c>
+      <c r="I44" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3719.6</v>
+      </c>
+      <c r="K44" s="3">
+        <v>61031.55</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5.4630000000000001</v>
+      </c>
+      <c r="M44" s="3">
+        <v>93.849998474121094</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.8361000000000001</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3.5874999999999999</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7.0266999999999999</v>
+      </c>
+      <c r="F45" s="3">
+        <v>53.080599999999997</v>
+      </c>
+      <c r="G45" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>66983.48</v>
+      </c>
+      <c r="I45" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3291.41</v>
+      </c>
+      <c r="K45" s="3">
+        <v>63692.07</v>
+      </c>
+      <c r="L45" s="3">
+        <v>6.4409999999999998</v>
+      </c>
+      <c r="M45" s="3">
+        <v>124.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.9153</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.1366000000000001</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1.7803</v>
+      </c>
+      <c r="F46" s="3">
+        <v>61.945599999999999</v>
+      </c>
+      <c r="G46" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>62327.35</v>
+      </c>
+      <c r="I46" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1104.29</v>
+      </c>
+      <c r="K46" s="3">
+        <v>61223.05</v>
+      </c>
+      <c r="L46" s="3">
+        <v>4.4009999999999998</v>
+      </c>
+      <c r="M46" s="3">
+        <v>83.400001525878906</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.57130000000000003</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.6973</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3.3407</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6.6489000000000003</v>
+      </c>
+      <c r="F47" s="3">
+        <v>36.701000000000001</v>
+      </c>
+      <c r="G47" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>55287.26</v>
+      </c>
+      <c r="I47" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3960.91</v>
+      </c>
+      <c r="K47" s="3">
+        <v>51326.35</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1.3165</v>
+      </c>
+      <c r="M47" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3.5411999999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7.0824999999999996</v>
+      </c>
+      <c r="F48" s="3">
+        <v>46.443899999999999</v>
+      </c>
+      <c r="G48" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>71291.98</v>
+      </c>
+      <c r="I48" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2765.66</v>
+      </c>
+      <c r="K48" s="3">
+        <v>68526.320000000007</v>
+      </c>
+      <c r="L48" s="3">
+        <v>8.3287999999999993</v>
+      </c>
+      <c r="M48" s="3">
+        <v>133.91000366210901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.2577</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2.9489999999999998</v>
+      </c>
+      <c r="F50" s="3">
+        <v>38.153300000000002</v>
+      </c>
+      <c r="G50" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H50" s="3">
+        <v>66699.66</v>
+      </c>
+      <c r="I50" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3115.57</v>
+      </c>
+      <c r="K50" s="3">
+        <v>63584.09</v>
+      </c>
+      <c r="L50" s="3">
+        <v>6.3167</v>
+      </c>
+      <c r="M50" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="3">
+        <v>6.1864999999999997</v>
+      </c>
+      <c r="C52" s="3">
+        <v>19.877500000000001</v>
+      </c>
+      <c r="D52" s="3">
+        <v>34.616100000000003</v>
+      </c>
+      <c r="E52" s="3">
+        <v>85.068100000000001</v>
+      </c>
+      <c r="F52" s="3">
+        <v>786.66700000000003</v>
+      </c>
+      <c r="G52" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>63523.96</v>
+      </c>
+      <c r="I52" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3272.26</v>
+      </c>
+      <c r="K52" s="3">
+        <v>60251.71</v>
+      </c>
+      <c r="L52" s="3">
+        <v>4.9253</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1452.03002929687</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2.5676999999999999</v>
+      </c>
+      <c r="C53" s="3">
+        <v>7.6976000000000004</v>
+      </c>
+      <c r="D53" s="3">
+        <v>15.124499999999999</v>
+      </c>
+      <c r="E53" s="3">
+        <v>29.650700000000001</v>
+      </c>
+      <c r="F53" s="3">
+        <v>271.33030000000002</v>
+      </c>
+      <c r="G53" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H53" s="3">
+        <v>64944.46</v>
+      </c>
+      <c r="I53" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J53" s="3">
+        <v>4223.3599999999997</v>
+      </c>
+      <c r="K53" s="3">
+        <v>60721.1</v>
+      </c>
+      <c r="L53" s="3">
+        <v>5.5476999999999999</v>
+      </c>
+      <c r="M53" s="3">
+        <v>392.92001342773398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1.7076</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5.1138000000000003</v>
+      </c>
+      <c r="D54" s="3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19.508900000000001</v>
+      </c>
+      <c r="F54" s="3">
+        <v>198.2543</v>
+      </c>
+      <c r="G54" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>60003.68</v>
+      </c>
+      <c r="I54" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4067.13</v>
+      </c>
+      <c r="K54" s="3">
+        <v>55936.55</v>
+      </c>
+      <c r="L54" s="3">
+        <v>3.383</v>
+      </c>
+      <c r="M54" s="3">
+        <v>233.97000122070301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2.1044999999999998</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5.4099000000000004</v>
+      </c>
+      <c r="E55" s="3">
+        <v>11.3672</v>
+      </c>
+      <c r="F55" s="3">
+        <v>216.19720000000001</v>
+      </c>
+      <c r="G55" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H55" s="3">
+        <v>70558.39</v>
+      </c>
+      <c r="I55" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J55" s="3">
+        <v>3646.69</v>
+      </c>
+      <c r="K55" s="3">
+        <v>66911.69</v>
+      </c>
+      <c r="L55" s="3">
+        <v>8.0073000000000008</v>
+      </c>
+      <c r="M55" s="3">
+        <v>163.72000122070301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="3">
+        <v>13.357799999999999</v>
+      </c>
+      <c r="C56" s="3">
+        <v>50.474800000000002</v>
+      </c>
+      <c r="D56" s="3">
+        <v>110.79389999999999</v>
+      </c>
+      <c r="E56" s="3">
+        <v>210.93600000000001</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1202.0820000000001</v>
+      </c>
+      <c r="G56" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H56" s="3">
+        <v>65904.259999999995</v>
+      </c>
+      <c r="I56" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J56" s="3">
+        <v>4907.37</v>
+      </c>
+      <c r="K56" s="3">
+        <v>60996.89</v>
+      </c>
+      <c r="L56" s="3">
+        <v>5.9682000000000004</v>
+      </c>
+      <c r="M56" s="3">
+        <v>2112.98999023437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3.3033000000000001</v>
+      </c>
+      <c r="G58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>31968.33</v>
+      </c>
+      <c r="I58" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1271.46</v>
+      </c>
+      <c r="K58" s="3">
+        <v>30696.86</v>
+      </c>
+      <c r="L58" s="3">
+        <v>-0.63539999999999996</v>
+      </c>
+      <c r="M58" s="3">
+        <v>12.279999732971101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="3">
+        <v>15.826499999999999</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44.259</v>
+      </c>
+      <c r="D59" s="3">
+        <v>86.419200000000004</v>
+      </c>
+      <c r="E59" s="3">
+        <v>174.45779999999999</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1210.248</v>
+      </c>
+      <c r="G59" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>59483.08</v>
+      </c>
+      <c r="I59" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2823.73</v>
+      </c>
+      <c r="K59" s="3">
+        <v>56659.360000000001</v>
+      </c>
+      <c r="L59" s="3">
+        <v>3.1549</v>
+      </c>
+      <c r="M59" s="3">
+        <v>3348.65991210937</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5.82</v>
+      </c>
+      <c r="D61" s="3">
+        <v>11.92</v>
+      </c>
+      <c r="E61" s="3">
+        <v>22.92</v>
+      </c>
+      <c r="F61" s="3">
+        <v>431.49</v>
+      </c>
+      <c r="G61" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>76295.289999999994</v>
+      </c>
+      <c r="I61" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3016.65</v>
+      </c>
+      <c r="K61" s="3">
+        <v>73278.63</v>
+      </c>
+      <c r="L61" s="3">
+        <v>10.520899999999999</v>
+      </c>
+      <c r="M61" s="3">
+        <v>410.45001220703102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3.4476</v>
+      </c>
+      <c r="E63" s="3">
+        <v>7.5698999999999996</v>
+      </c>
+      <c r="F63" s="3">
+        <v>10.489100000000001</v>
+      </c>
+      <c r="G63" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H63" s="3">
+        <v>56118.7</v>
+      </c>
+      <c r="I63" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J63" s="3">
+        <v>3573.66</v>
+      </c>
+      <c r="K63" s="3">
+        <v>52545.04</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1.6808000000000001</v>
+      </c>
+      <c r="M63" s="3">
+        <v>103.650001525878</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1.3064</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2.6663999999999999</v>
+      </c>
+      <c r="E64" s="3">
+        <v>6.1882000000000001</v>
+      </c>
+      <c r="F64" s="3">
+        <v>53.056199999999997</v>
+      </c>
+      <c r="G64" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H64" s="3">
+        <v>57907.33</v>
+      </c>
+      <c r="I64" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J64" s="3">
+        <v>3913.85</v>
+      </c>
+      <c r="K64" s="3">
+        <v>53993.47</v>
+      </c>
+      <c r="L64" s="3">
+        <v>2.4645000000000001</v>
+      </c>
+      <c r="M64" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.3115</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3.2568000000000001</v>
+      </c>
+      <c r="F67" s="3">
+        <v>25.010300000000001</v>
+      </c>
+      <c r="G67" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H67" s="3">
+        <v>62417.91</v>
+      </c>
+      <c r="I67" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J67" s="3">
+        <v>1973.93</v>
+      </c>
+      <c r="K67" s="3">
+        <v>60443.98</v>
+      </c>
+      <c r="L67" s="3">
+        <v>4.4406999999999996</v>
+      </c>
+      <c r="M67" s="3">
+        <v>91.400001525878906</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1892.5781999999999</v>
+      </c>
+      <c r="G68" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H68" s="3">
+        <v>32407.26</v>
+      </c>
+      <c r="I68" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>32407.26</v>
+      </c>
+      <c r="L68" s="3">
+        <v>-0.61329999999999996</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2.1463000000000001</v>
+      </c>
+      <c r="D69" s="3">
+        <v>4.2572999999999999</v>
+      </c>
+      <c r="E69" s="3">
+        <v>8.3248999999999995</v>
+      </c>
+      <c r="F69" s="3">
+        <v>128.28229999999999</v>
+      </c>
+      <c r="G69" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H69" s="3">
+        <v>59190.03</v>
+      </c>
+      <c r="I69" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2181.4</v>
+      </c>
+      <c r="K69" s="3">
+        <v>57008.63</v>
+      </c>
+      <c r="L69" s="3">
+        <v>3.0265</v>
+      </c>
+      <c r="M69" s="3">
+        <v>205.009994506835</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2.8275999999999999</v>
+      </c>
+      <c r="D70" s="3">
+        <v>4.1718999999999999</v>
+      </c>
+      <c r="E70" s="3">
+        <v>8.3437999999999999</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3.4765999999999999</v>
+      </c>
+      <c r="G70" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>55456.35</v>
+      </c>
+      <c r="I70" s="3">
+        <v>50935.68</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1706.35</v>
+      </c>
+      <c r="K70" s="3">
+        <v>53750</v>
+      </c>
+      <c r="L70" s="3">
+        <v>4.8315000000000001</v>
+      </c>
+      <c r="M70" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2.2625000000000002</v>
+      </c>
+      <c r="D71" s="3">
+        <v>4.7995000000000001</v>
+      </c>
+      <c r="E71" s="3">
+        <v>10.4397</v>
+      </c>
+      <c r="F71" s="3">
+        <v>19.344999999999999</v>
+      </c>
+      <c r="G71" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>60341.17</v>
+      </c>
+      <c r="I71" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J71" s="3">
+        <v>4891.34</v>
+      </c>
+      <c r="K71" s="3">
+        <v>55449.84</v>
+      </c>
+      <c r="L71" s="3">
+        <v>3.5308000000000002</v>
+      </c>
+      <c r="M71" s="3">
+        <v>108.480003356933</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1.5424</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2.7292000000000001</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4.9370000000000003</v>
+      </c>
+      <c r="F72" s="3">
+        <v>41.001800000000003</v>
+      </c>
+      <c r="G72" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>61631.18</v>
+      </c>
+      <c r="I72" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2534.0100000000002</v>
+      </c>
+      <c r="K72" s="3">
+        <v>59097.17</v>
+      </c>
+      <c r="L72" s="3">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="M72" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="E73" s="3">
+        <v>5.52</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="G73" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H73" s="3">
+        <v>48716.6</v>
+      </c>
+      <c r="I73" s="3">
+        <v>50559.32</v>
+      </c>
+      <c r="J73" s="3">
+        <v>716.6</v>
+      </c>
+      <c r="K73" s="3">
+        <v>48000</v>
+      </c>
+      <c r="L73" s="3">
+        <v>-3.78E-2</v>
+      </c>
+      <c r="M73" s="3">
+        <v>94.489997863769503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1.7928999999999999</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3.9228999999999998</v>
+      </c>
+      <c r="E75" s="3">
+        <v>7.2507000000000001</v>
+      </c>
+      <c r="F75" s="3">
+        <v>6.0422000000000002</v>
+      </c>
+      <c r="G75" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H75" s="3">
+        <v>58422.04</v>
+      </c>
+      <c r="I75" s="3">
+        <v>51888.86</v>
+      </c>
+      <c r="J75" s="3">
+        <v>2710.08</v>
+      </c>
+      <c r="K75" s="3">
+        <v>55711.95</v>
+      </c>
+      <c r="L75" s="3">
+        <v>3.4588000000000001</v>
+      </c>
+      <c r="M75" s="3">
+        <v>108.400001525878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="D76" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>50185.75</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>50000</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="M76" s="3">
+        <v>107.930000305175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="F77" s="3">
+        <v>42.422499999999999</v>
+      </c>
+      <c r="G77" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>45472.36</v>
+      </c>
+      <c r="I77" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J77" s="3">
+        <v>480.69</v>
+      </c>
+      <c r="K77" s="3">
+        <v>44991.67</v>
+      </c>
+      <c r="L77" s="3">
+        <v>-0.14979999999999999</v>
+      </c>
+      <c r="M77" s="3">
+        <v>67.900001525878906</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E79" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="F79" s="3">
+        <v>53.230899999999998</v>
+      </c>
+      <c r="G79" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H79" s="3">
+        <v>61431.42</v>
+      </c>
+      <c r="I79" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J79" s="3">
+        <v>4040.03</v>
+      </c>
+      <c r="K79" s="3">
+        <v>57391.39</v>
+      </c>
+      <c r="L79" s="3">
+        <v>4.0084999999999997</v>
+      </c>
+      <c r="M79" s="3">
+        <v>104.949996948242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3.2566000000000002</v>
+      </c>
+      <c r="D82" s="3">
+        <v>6.1376999999999997</v>
+      </c>
+      <c r="E82" s="3">
+        <v>9.6038999999999994</v>
+      </c>
+      <c r="F82" s="3">
+        <v>335.31009999999998</v>
+      </c>
+      <c r="G82" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H82" s="3">
+        <v>30157.61</v>
+      </c>
+      <c r="I82" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J82" s="3">
+        <v>1132.7</v>
+      </c>
+      <c r="K82" s="3">
+        <v>29024.91</v>
+      </c>
+      <c r="L82" s="3">
+        <v>-0.73360000000000003</v>
+      </c>
+      <c r="M82" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1.1034999999999999</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2.1776</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4.5757000000000003</v>
+      </c>
+      <c r="F83" s="3">
+        <v>33.659500000000001</v>
+      </c>
+      <c r="G83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>54482.58</v>
+      </c>
+      <c r="I83" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3828.41</v>
+      </c>
+      <c r="K83" s="3">
+        <v>50654.17</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="M83" s="3">
+        <v>57.650001525878899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="D85" s="3">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1.5894999999999999</v>
+      </c>
+      <c r="G85" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H85" s="3">
+        <v>102907.01</v>
+      </c>
+      <c r="I85" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J85" s="3">
+        <v>2634.83</v>
+      </c>
+      <c r="K85" s="3">
+        <v>100272.18</v>
+      </c>
+      <c r="L85" s="3">
+        <v>22.180399999999999</v>
+      </c>
+      <c r="M85" s="3">
+        <v>4.5199999809265101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C87" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D87" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E87" s="3">
+        <v>14.09</v>
+      </c>
+      <c r="F87" s="3">
+        <v>150.97</v>
+      </c>
+      <c r="G87" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H87" s="3">
+        <v>60933.49</v>
+      </c>
+      <c r="I87" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J87" s="3">
+        <v>4202.82</v>
+      </c>
+      <c r="K87" s="3">
+        <v>56730.67</v>
+      </c>
+      <c r="L87" s="3">
+        <v>3.7902999999999998</v>
+      </c>
+      <c r="M87" s="3">
+        <v>169.30000305175699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.40210000000000001</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1.4917</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6.4916999999999998</v>
+      </c>
+      <c r="F89" s="3">
+        <v>58.878300000000003</v>
+      </c>
+      <c r="G89" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>61955.5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4871.8500000000004</v>
+      </c>
+      <c r="K89" s="3">
+        <v>57083.65</v>
+      </c>
+      <c r="L89" s="3">
+        <v>4.2381000000000002</v>
+      </c>
+      <c r="M89" s="3">
+        <v>66.930000305175696</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1.43</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="E90" s="3">
+        <v>5.6550000000000002</v>
+      </c>
+      <c r="F90" s="3">
+        <v>41.010599999999997</v>
+      </c>
+      <c r="G90" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H90" s="3">
+        <v>61076.32</v>
+      </c>
+      <c r="I90" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J90" s="3">
+        <v>2937.57</v>
+      </c>
+      <c r="K90" s="3">
+        <v>58138.75</v>
+      </c>
+      <c r="L90" s="3">
+        <v>3.8529</v>
+      </c>
+      <c r="M90" s="3">
+        <v>93.349998474121094</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
+        <v>3.3332999999999999</v>
+      </c>
+      <c r="G91" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>53926.34</v>
+      </c>
+      <c r="I91" s="3">
+        <v>50935.68</v>
+      </c>
+      <c r="J91" s="3">
+        <v>1626.34</v>
+      </c>
+      <c r="K91" s="3">
+        <v>52300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>3.1962999999999999</v>
+      </c>
+      <c r="M91" s="3">
+        <v>105.800003051757</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="3">
+        <v>11</v>
+      </c>
+      <c r="C92" s="3">
+        <v>33</v>
+      </c>
+      <c r="D92" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="E92" s="3">
+        <v>102.52</v>
+      </c>
+      <c r="F92" s="3">
+        <v>118.52</v>
+      </c>
+      <c r="G92" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H92" s="3">
+        <v>79565.25</v>
+      </c>
+      <c r="I92" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J92" s="3">
+        <v>4099.97</v>
+      </c>
+      <c r="K92" s="3">
+        <v>75465.279999999999</v>
+      </c>
+      <c r="L92" s="3">
+        <v>11.9536</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1.3226</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1.3226</v>
+      </c>
+      <c r="G93" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H93" s="3">
+        <v>54145.88</v>
+      </c>
+      <c r="I93" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J93" s="3">
+        <v>554.94000000000005</v>
+      </c>
+      <c r="K93" s="3">
+        <v>53590.95</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0.8165</v>
+      </c>
+      <c r="M93" s="3">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="C94" s="3">
+        <v>8.01</v>
+      </c>
+      <c r="D94" s="3">
+        <v>15.88</v>
+      </c>
+      <c r="E94" s="3">
+        <v>31.72</v>
+      </c>
+      <c r="F94" s="3">
+        <v>218.34</v>
+      </c>
+      <c r="G94" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>69240.509999999995</v>
+      </c>
+      <c r="I94" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J94" s="3">
+        <v>3500.96</v>
+      </c>
+      <c r="K94" s="3">
+        <v>65739.55</v>
+      </c>
+      <c r="L94" s="3">
+        <v>7.4298999999999999</v>
+      </c>
+      <c r="M94" s="3">
+        <v>523.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="F96" s="3">
+        <v>88.71</v>
+      </c>
+      <c r="G96" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>47516.34</v>
+      </c>
+      <c r="I96" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J96" s="3">
+        <v>1583.16</v>
+      </c>
+      <c r="K96" s="3">
+        <v>45933.18</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-0.1003</v>
+      </c>
+      <c r="M96" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C97" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="D97" s="3">
+        <v>51</v>
+      </c>
+      <c r="E97" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="F97" s="3">
+        <v>852.09</v>
+      </c>
+      <c r="G97" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H97" s="3">
+        <v>63269.71</v>
+      </c>
+      <c r="I97" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J97" s="3">
+        <v>4268.29</v>
+      </c>
+      <c r="K97" s="3">
+        <v>59001.42</v>
+      </c>
+      <c r="L97" s="3">
+        <v>4.8139000000000003</v>
+      </c>
+      <c r="M97" s="3">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="E98" s="3">
+        <v>9.02</v>
+      </c>
+      <c r="F98" s="3">
+        <v>11.2309</v>
+      </c>
+      <c r="G98" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H98" s="3">
+        <v>70412.14</v>
+      </c>
+      <c r="I98" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J98" s="3">
+        <v>4660.63</v>
+      </c>
+      <c r="K98" s="3">
+        <v>65751.509999999995</v>
+      </c>
+      <c r="L98" s="3">
+        <v>7.9432999999999998</v>
+      </c>
+      <c r="M98" s="3">
+        <v>105.56999969482401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M100" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>50.825000000000003</v>
+      </c>
+      <c r="G102" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>31509.71</v>
+      </c>
+      <c r="I102" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>31509.71</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-0.65920000000000001</v>
+      </c>
+      <c r="M102" s="3">
+        <v>25.110000610351499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C106" s="3">
+        <v>6</v>
+      </c>
+      <c r="D106" s="3">
+        <v>11.65</v>
+      </c>
+      <c r="E106" s="3">
+        <v>22.15</v>
+      </c>
+      <c r="F106" s="3">
+        <v>288.45999999999998</v>
+      </c>
+      <c r="G106" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H106" s="3">
+        <v>56406.58</v>
+      </c>
+      <c r="I106" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J106" s="3">
+        <v>3046.19</v>
+      </c>
+      <c r="K106" s="3">
+        <v>53360.39</v>
+      </c>
+      <c r="L106" s="3">
+        <v>1.8069</v>
+      </c>
+      <c r="M106" s="3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="D107" s="3">
+        <v>4.7346000000000004</v>
+      </c>
+      <c r="E107" s="3">
+        <v>8.7515000000000001</v>
+      </c>
+      <c r="F107" s="3">
+        <v>16.725300000000001</v>
+      </c>
+      <c r="G107" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H107" s="3">
+        <v>58423.58</v>
+      </c>
+      <c r="I107" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J107" s="3">
+        <v>4239.1000000000004</v>
+      </c>
+      <c r="K107" s="3">
+        <v>54184.480000000003</v>
+      </c>
+      <c r="L107" s="3">
+        <v>2.6907000000000001</v>
+      </c>
+      <c r="M107" s="3">
+        <v>104.83000183105401</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2.1263999999999998</v>
+      </c>
+      <c r="D108" s="3">
+        <v>4.1646999999999998</v>
+      </c>
+      <c r="E108" s="3">
+        <v>8.3292999999999999</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2.7764000000000002</v>
+      </c>
+      <c r="G108" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H108" s="3">
+        <v>45895.05</v>
+      </c>
+      <c r="I108" s="3">
+        <v>50559.32</v>
+      </c>
+      <c r="J108" s="3">
+        <v>510.43</v>
+      </c>
+      <c r="K108" s="3">
+        <v>45384.62</v>
+      </c>
+      <c r="L108" s="3">
+        <v>-0.1016</v>
+      </c>
+      <c r="M108" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1.0113000000000001</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2.1025999999999998</v>
+      </c>
+      <c r="E109" s="3">
+        <v>4.2051999999999996</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1.4016999999999999</v>
+      </c>
+      <c r="G109" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H109" s="3">
+        <v>54295.19</v>
+      </c>
+      <c r="I109" s="3">
+        <v>50559.32</v>
+      </c>
+      <c r="J109" s="3">
+        <v>347.18</v>
+      </c>
+      <c r="K109" s="3">
+        <v>53948.01</v>
+      </c>
+      <c r="L109" s="3">
+        <v>6.6792999999999996</v>
+      </c>
+      <c r="M109" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="D110" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="E110" s="3">
+        <v>6.91</v>
+      </c>
+      <c r="F110" s="3">
+        <v>132.39510000000001</v>
+      </c>
+      <c r="G110" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H110" s="3">
+        <v>55552.55</v>
+      </c>
+      <c r="I110" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J110" s="3">
+        <v>2054.6799999999998</v>
+      </c>
+      <c r="K110" s="3">
+        <v>53497.87</v>
+      </c>
+      <c r="L110" s="3">
+        <v>1.4328000000000001</v>
+      </c>
+      <c r="M110" s="3">
+        <v>174.44999694824199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3">
+        <v>6.48</v>
+      </c>
+      <c r="E111" s="3">
+        <v>13.84</v>
+      </c>
+      <c r="F111" s="3">
+        <v>98.471699999999998</v>
+      </c>
+      <c r="G111" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H111" s="3">
+        <v>61886.35</v>
+      </c>
+      <c r="I111" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J111" s="3">
+        <v>4173.7700000000004</v>
+      </c>
+      <c r="K111" s="3">
+        <v>57712.58</v>
+      </c>
+      <c r="L111" s="3">
+        <v>4.2077999999999998</v>
+      </c>
+      <c r="M111" s="3">
+        <v>157.14999389648401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="D112" s="3">
+        <v>5.94</v>
+      </c>
+      <c r="E112" s="3">
+        <v>10.49</v>
+      </c>
+      <c r="F112" s="3">
+        <v>63.43</v>
+      </c>
+      <c r="G112" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H112" s="3">
+        <v>69428.3</v>
+      </c>
+      <c r="I112" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J112" s="3">
+        <v>4230.3500000000004</v>
+      </c>
+      <c r="K112" s="3">
+        <v>65197.95</v>
+      </c>
+      <c r="L112" s="3">
+        <v>7.5122</v>
+      </c>
+      <c r="M112" s="3">
+        <v>134.74000549316401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3</v>
+      </c>
+      <c r="E113" s="3">
+        <v>5.88</v>
+      </c>
+      <c r="F113" s="3">
+        <v>58.0548</v>
+      </c>
+      <c r="G113" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H113" s="3">
+        <v>57118.11</v>
+      </c>
+      <c r="I113" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J113" s="3">
+        <v>3518.9</v>
+      </c>
+      <c r="K113" s="3">
+        <v>53599.199999999997</v>
+      </c>
+      <c r="L113" s="3">
+        <v>2.1187</v>
+      </c>
+      <c r="M113" s="3">
+        <v>84.349998474121094</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M115" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="3">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.1905</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="F116" s="3">
+        <v>9.9910999999999994</v>
+      </c>
+      <c r="G116" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H116" s="3">
+        <v>55102.02</v>
+      </c>
+      <c r="I116" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J116" s="3">
+        <v>3052.72</v>
+      </c>
+      <c r="K116" s="3">
+        <v>52049.3</v>
+      </c>
+      <c r="L116" s="3">
+        <v>1.2354000000000001</v>
+      </c>
+      <c r="M116" s="3">
+        <v>11.9899997711181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="D117" s="3">
+        <v>3.84</v>
+      </c>
+      <c r="E117" s="3">
+        <v>7.68</v>
+      </c>
+      <c r="F117" s="3">
+        <v>54.344999999999999</v>
+      </c>
+      <c r="G117" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H117" s="3">
+        <v>62028.31</v>
+      </c>
+      <c r="I117" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J117" s="3">
+        <v>3529.73</v>
+      </c>
+      <c r="K117" s="3">
+        <v>58498.59</v>
+      </c>
+      <c r="L117" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M117" s="3">
+        <v>118.120002746582</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C118" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="D118" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="E118" s="3">
+        <v>44.85</v>
+      </c>
+      <c r="F118" s="3">
+        <v>382.68020000000001</v>
+      </c>
+      <c r="G118" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H118" s="3">
+        <v>51135.67</v>
+      </c>
+      <c r="I118" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J118" s="3">
+        <v>2389.75</v>
+      </c>
+      <c r="K118" s="3">
+        <v>48745.919999999998</v>
+      </c>
+      <c r="L118" s="3">
+        <v>-2.24E-2</v>
+      </c>
+      <c r="M118" s="3">
+        <v>925.54998779296795</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C119" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="D119" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="E119" s="3">
+        <v>10.43</v>
+      </c>
+      <c r="F119" s="3">
+        <v>22.79</v>
+      </c>
+      <c r="G119" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H119" s="3">
+        <v>60928.7</v>
+      </c>
+      <c r="I119" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J119" s="3">
+        <v>4094.18</v>
+      </c>
+      <c r="K119" s="3">
+        <v>56834.52</v>
+      </c>
+      <c r="L119" s="3">
+        <v>3.7881999999999998</v>
+      </c>
+      <c r="M119" s="3">
+        <v>138.38999938964801</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="D120" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="E120" s="3">
+        <v>8.39</v>
+      </c>
+      <c r="F120" s="3">
+        <v>51.985100000000003</v>
+      </c>
+      <c r="G120" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H120" s="3">
+        <v>66203.45</v>
+      </c>
+      <c r="I120" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J120" s="3">
+        <v>2940.25</v>
+      </c>
+      <c r="K120" s="3">
+        <v>63263.199999999997</v>
+      </c>
+      <c r="L120" s="3">
+        <v>6.0993000000000004</v>
+      </c>
+      <c r="M120" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M122" s="3">
+        <v>103.86000061035099</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.48620000000000002</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1.4637</v>
+      </c>
+      <c r="D123" s="3">
+        <v>2.6301000000000001</v>
+      </c>
+      <c r="E123" s="3">
+        <v>5.0106000000000002</v>
+      </c>
+      <c r="F123" s="3">
+        <v>49.752200000000002</v>
+      </c>
+      <c r="G123" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H123" s="3">
+        <v>69858.899999999994</v>
+      </c>
+      <c r="I123" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J123" s="3">
+        <v>1965.99</v>
+      </c>
+      <c r="K123" s="3">
+        <v>67892.899999999994</v>
+      </c>
+      <c r="L123" s="3">
+        <v>7.7008999999999999</v>
+      </c>
+      <c r="M123" s="3">
+        <v>139.30000305175699</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="C124" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="D124" s="3">
+        <v>8.16</v>
+      </c>
+      <c r="E124" s="3">
+        <v>16.32</v>
+      </c>
+      <c r="F124" s="3">
+        <v>10.88</v>
+      </c>
+      <c r="G124" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H124" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I124" s="3">
+        <v>50935.68</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>50000</v>
+      </c>
+      <c r="L124" s="3">
+        <v>-1.8700000000000001E-2</v>
+      </c>
+      <c r="M124" s="3">
+        <v>263.89001464843699</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="C125" s="3">
+        <v>2.7860999999999998</v>
+      </c>
+      <c r="D125" s="3">
+        <v>6.8594999999999997</v>
+      </c>
+      <c r="E125" s="3">
+        <v>14.1395</v>
+      </c>
+      <c r="F125" s="3">
+        <v>47.7423</v>
+      </c>
+      <c r="G125" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H125" s="3">
+        <v>42126.62</v>
+      </c>
+      <c r="I125" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J125" s="3">
+        <v>3616.83</v>
+      </c>
+      <c r="K125" s="3">
+        <v>38509.79</v>
+      </c>
+      <c r="L125" s="3">
+        <v>-0.24110000000000001</v>
+      </c>
+      <c r="M125" s="3">
+        <v>183.89999389648401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H126" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I126" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0</v>
+      </c>
+      <c r="K126" s="3">
+        <v>35000</v>
+      </c>
+      <c r="L126" s="3">
+        <v>-0.49380000000000002</v>
+      </c>
+      <c r="M126" s="3">
+        <v>3.38000011444091</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2.0750999999999999</v>
+      </c>
+      <c r="D127" s="3">
+        <v>4.8418999999999999</v>
+      </c>
+      <c r="E127" s="3">
+        <v>8.9652999999999992</v>
+      </c>
+      <c r="F127" s="3">
+        <v>11.632</v>
+      </c>
+      <c r="G127" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H127" s="3">
+        <v>53711.62</v>
+      </c>
+      <c r="I127" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J127" s="3">
+        <v>4451.8100000000004</v>
+      </c>
+      <c r="K127" s="3">
+        <v>49259.8</v>
+      </c>
+      <c r="L127" s="3">
+        <v>0.62619999999999998</v>
+      </c>
+      <c r="M127" s="3">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1.845</v>
+      </c>
+      <c r="D128" s="3">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="E128" s="3">
+        <v>7.5686999999999998</v>
+      </c>
+      <c r="F128" s="3">
+        <v>5.6764999999999999</v>
+      </c>
+      <c r="G128" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H128" s="3">
+        <v>48214.42</v>
+      </c>
+      <c r="I128" s="3">
+        <v>51696.81</v>
+      </c>
+      <c r="J128" s="3">
+        <v>2759.88</v>
+      </c>
+      <c r="K128" s="3">
+        <v>45454.55</v>
+      </c>
+      <c r="L128" s="3">
+        <v>-7.22E-2</v>
+      </c>
+      <c r="M128" s="3">
+        <v>101.199996948242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M129" s="3">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="E131" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G131" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H131" s="3">
+        <v>51643.77</v>
+      </c>
+      <c r="I131" s="3">
+        <v>50185.75</v>
+      </c>
+      <c r="J131" s="3">
+        <v>218.77</v>
+      </c>
+      <c r="K131" s="3">
+        <v>51425</v>
+      </c>
+      <c r="L131" s="3">
+        <v>7.8493000000000004</v>
+      </c>
+      <c r="M131" s="3">
+        <v>105.900001525878</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2.5846</v>
+      </c>
+      <c r="D133" s="3">
+        <v>5.0269000000000004</v>
+      </c>
+      <c r="E133" s="3">
+        <v>9.9412000000000003</v>
+      </c>
+      <c r="F133" s="3">
+        <v>14.127700000000001</v>
+      </c>
+      <c r="G133" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H133" s="3">
+        <v>68075.740000000005</v>
+      </c>
+      <c r="I133" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J133" s="3">
+        <v>4358.92</v>
+      </c>
+      <c r="K133" s="3">
+        <v>63716.81</v>
+      </c>
+      <c r="L133" s="3">
+        <v>6.9196</v>
+      </c>
+      <c r="M133" s="3">
+        <v>130.57000732421801</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="D134" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="E134" s="3">
+        <v>5.92</v>
+      </c>
+      <c r="F134" s="3">
+        <v>6.06</v>
+      </c>
+      <c r="G134" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H134" s="3">
+        <v>57720.58</v>
+      </c>
+      <c r="I134" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J134" s="3">
+        <v>2785.58</v>
+      </c>
+      <c r="K134" s="3">
+        <v>54935</v>
+      </c>
+      <c r="L134" s="3">
+        <v>2.3826999999999998</v>
+      </c>
+      <c r="M134" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="D135" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="E135" s="3">
+        <v>7.3049999999999997</v>
+      </c>
+      <c r="F135" s="3">
+        <v>9.4878999999999998</v>
+      </c>
+      <c r="G135" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H135" s="3">
+        <v>60895.17</v>
+      </c>
+      <c r="I135" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J135" s="3">
+        <v>3891.42</v>
+      </c>
+      <c r="K135" s="3">
+        <v>57003.76</v>
+      </c>
+      <c r="L135" s="3">
+        <v>3.7736000000000001</v>
+      </c>
+      <c r="M135" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M136" s="3">
+        <v>3.5299999713897701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="C137" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="D137" s="3">
+        <v>4.18</v>
+      </c>
+      <c r="E137" s="3">
+        <v>8.73</v>
+      </c>
+      <c r="F137" s="3">
+        <v>22.7501</v>
+      </c>
+      <c r="G137" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H137" s="3">
+        <v>65895.649999999994</v>
+      </c>
+      <c r="I137" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J137" s="3">
+        <v>3219.55</v>
+      </c>
+      <c r="K137" s="3">
+        <v>62676.1</v>
+      </c>
+      <c r="L137" s="3">
+        <v>5.9644000000000004</v>
+      </c>
+      <c r="M137" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M138" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C139" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="D139" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="E139" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G139" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H139" s="3">
+        <v>52276.45</v>
+      </c>
+      <c r="I139" s="3">
+        <v>50185.75</v>
+      </c>
+      <c r="J139" s="3">
+        <v>531.45000000000005</v>
+      </c>
+      <c r="K139" s="3">
+        <v>51745</v>
+      </c>
+      <c r="L139" s="3">
+        <v>11.2555</v>
+      </c>
+      <c r="M139" s="3">
+        <v>104.900001525878</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C141" s="3">
+        <v>4.1509999999999998</v>
+      </c>
+      <c r="D141" s="3">
+        <v>8.3019999999999996</v>
+      </c>
+      <c r="E141" s="3">
+        <v>16.603999999999999</v>
+      </c>
+      <c r="F141" s="3">
+        <v>4.1509999999999998</v>
+      </c>
+      <c r="G141" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H141" s="3">
+        <v>64003.71</v>
+      </c>
+      <c r="I141" s="3">
+        <v>50559.32</v>
+      </c>
+      <c r="J141" s="3">
+        <v>1724.21</v>
+      </c>
+      <c r="K141" s="3">
+        <v>62279.5</v>
+      </c>
+      <c r="L141" s="3">
+        <v>24.036899999999999</v>
+      </c>
+      <c r="M141" s="3">
+        <v>139.99000549316401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="E142" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="F142" s="3">
+        <v>6.4550000000000001</v>
+      </c>
+      <c r="G142" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H142" s="3">
+        <v>52936.42</v>
+      </c>
+      <c r="I142" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J142" s="3">
+        <v>1319.54</v>
+      </c>
+      <c r="K142" s="3">
+        <v>51616.88</v>
+      </c>
+      <c r="L142" s="3">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="M142" s="3">
+        <v>114.98999786376901</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C143" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D143" s="3">
+        <v>9</v>
+      </c>
+      <c r="E143" s="3">
+        <v>17.22</v>
+      </c>
+      <c r="F143" s="3">
+        <v>161.22499999999999</v>
+      </c>
+      <c r="G143" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H143" s="3">
+        <v>66339.97</v>
+      </c>
+      <c r="I143" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J143" s="3">
+        <v>3502.24</v>
+      </c>
+      <c r="K143" s="3">
+        <v>62837.73</v>
+      </c>
+      <c r="L143" s="3">
+        <v>6.1590999999999996</v>
+      </c>
+      <c r="M143" s="3">
+        <v>258.100006103515</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="C145" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="D145" s="3">
+        <v>7.85</v>
+      </c>
+      <c r="E145" s="3">
+        <v>14.33</v>
+      </c>
+      <c r="F145" s="3">
+        <v>53.6</v>
+      </c>
+      <c r="G145" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H145" s="3">
+        <v>64663.03</v>
+      </c>
+      <c r="I145" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J145" s="3">
+        <v>3181.16</v>
+      </c>
+      <c r="K145" s="3">
+        <v>61481.87</v>
+      </c>
+      <c r="L145" s="3">
+        <v>5.4244000000000003</v>
+      </c>
+      <c r="M145" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="D146" s="3">
+        <v>3.89</v>
+      </c>
+      <c r="E146" s="3">
+        <v>7.47</v>
+      </c>
+      <c r="F146" s="3">
+        <v>34.344000000000001</v>
+      </c>
+      <c r="G146" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H146" s="3">
+        <v>59999.58</v>
+      </c>
+      <c r="I146" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J146" s="3">
+        <v>4035.49</v>
+      </c>
+      <c r="K146" s="3">
+        <v>55964.09</v>
+      </c>
+      <c r="L146" s="3">
+        <v>3.3812000000000002</v>
+      </c>
+      <c r="M146" s="3">
+        <v>99.989997863769503</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D147" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="E147" s="3">
+        <v>10.02</v>
+      </c>
+      <c r="F147" s="3">
+        <v>13.91</v>
+      </c>
+      <c r="G147" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H147" s="3">
+        <v>63231.09</v>
+      </c>
+      <c r="I147" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J147" s="3">
+        <v>4970.5200000000004</v>
+      </c>
+      <c r="K147" s="3">
+        <v>58260.57</v>
+      </c>
+      <c r="L147" s="3">
+        <v>4.7969999999999997</v>
+      </c>
+      <c r="M147" s="3">
+        <v>104.650001525878</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="D149" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="E149" s="3">
+        <v>7.26</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="G149" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H149" s="3">
+        <v>49496.36</v>
+      </c>
+      <c r="I149" s="3">
+        <v>50372.19</v>
+      </c>
+      <c r="J149" s="3">
+        <v>583.30999999999995</v>
+      </c>
+      <c r="K149" s="3">
+        <v>48913.04</v>
+      </c>
+      <c r="L149" s="3">
+        <v>-1.77E-2</v>
+      </c>
+      <c r="M149" s="3">
+        <v>102.48999786376901</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.193</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2.2671000000000001</v>
+      </c>
+      <c r="E152" s="3">
+        <v>4.3593000000000002</v>
+      </c>
+      <c r="F152" s="3">
+        <v>43.391300000000001</v>
+      </c>
+      <c r="G152" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H152" s="3">
+        <v>66357.67</v>
+      </c>
+      <c r="I152" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J152" s="3">
+        <v>2732.8</v>
+      </c>
+      <c r="K152" s="3">
+        <v>63624.87</v>
+      </c>
+      <c r="L152" s="3">
+        <v>6.1669</v>
+      </c>
+      <c r="M152" s="3">
+        <v>86.019996643066406</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+      <c r="C154" s="3">
+        <v>14.545500000000001</v>
+      </c>
+      <c r="D154" s="3">
+        <v>33.445300000000003</v>
+      </c>
+      <c r="E154" s="3">
+        <v>44.593699999999998</v>
+      </c>
+      <c r="F154" s="3">
+        <v>33.445300000000003</v>
+      </c>
+      <c r="G154" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H154" s="3">
+        <v>51879.49</v>
+      </c>
+      <c r="I154" s="3">
+        <v>51505.47</v>
+      </c>
+      <c r="J154" s="3">
+        <v>974.22</v>
+      </c>
+      <c r="K154" s="3">
+        <v>50905.279999999999</v>
+      </c>
+      <c r="L154" s="3">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="M154" s="3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="D155" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="E155" s="3">
+        <v>7.06</v>
+      </c>
+      <c r="F155" s="3">
+        <v>73.819999999999993</v>
+      </c>
+      <c r="G155" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H155" s="3">
+        <v>57896.6</v>
+      </c>
+      <c r="I155" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J155" s="3">
+        <v>3287.56</v>
+      </c>
+      <c r="K155" s="3">
+        <v>54609.04</v>
+      </c>
+      <c r="L155" s="3">
+        <v>2.4598</v>
+      </c>
+      <c r="M155" s="3">
+        <v>108.699996948242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="D157" s="3">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E157" s="3">
+        <v>8.0617999999999999</v>
+      </c>
+      <c r="F157" s="3">
+        <v>7.39</v>
+      </c>
+      <c r="G157" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H157" s="3">
+        <v>61656.06</v>
+      </c>
+      <c r="I157" s="3">
+        <v>52081.63</v>
+      </c>
+      <c r="J157" s="3">
+        <v>3195.43</v>
+      </c>
+      <c r="K157" s="3">
+        <v>58460.63</v>
+      </c>
+      <c r="L157" s="3">
+        <v>4.5994999999999999</v>
+      </c>
+      <c r="M157" s="3">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="3">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="C158" s="3">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0.158</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.5111</v>
+      </c>
+      <c r="F158" s="3">
+        <v>2.0623</v>
+      </c>
+      <c r="G158" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H158" s="3">
+        <v>35176.42</v>
+      </c>
+      <c r="I158" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J158" s="3">
+        <v>2959.92</v>
+      </c>
+      <c r="K158" s="3">
+        <v>32216.49</v>
+      </c>
+      <c r="L158" s="3">
+        <v>-0.48630000000000001</v>
+      </c>
+      <c r="M158" s="3">
+        <v>6.5999999046325604</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="D159" s="3">
+        <v>4.43</v>
+      </c>
+      <c r="E159" s="3">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F159" s="3">
+        <v>25.96</v>
+      </c>
+      <c r="G159" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H159" s="3">
+        <v>56739.01</v>
+      </c>
+      <c r="I159" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J159" s="3">
+        <v>3782.3</v>
+      </c>
+      <c r="K159" s="3">
+        <v>52956.71</v>
+      </c>
+      <c r="L159" s="3">
+        <v>1.9525999999999999</v>
+      </c>
+      <c r="M159" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D160" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E160" s="3">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F160" s="3">
+        <v>85.802999999999997</v>
+      </c>
+      <c r="G160" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H160" s="3">
+        <v>60258.98</v>
+      </c>
+      <c r="I160" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J160" s="3">
+        <v>2922.57</v>
+      </c>
+      <c r="K160" s="3">
+        <v>57336.4</v>
+      </c>
+      <c r="L160" s="3">
+        <v>3.4948000000000001</v>
+      </c>
+      <c r="M160" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="D161" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="E161" s="3">
+        <v>6.82</v>
+      </c>
+      <c r="F161" s="3">
+        <v>67.376999999999995</v>
+      </c>
+      <c r="G161" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H161" s="3">
+        <v>52873.67</v>
+      </c>
+      <c r="I161" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J161" s="3">
+        <v>3238.14</v>
+      </c>
+      <c r="K161" s="3">
+        <v>49635.53</v>
+      </c>
+      <c r="L161" s="3">
+        <v>0.2591</v>
+      </c>
+      <c r="M161" s="3">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" s="3">
+        <v>4.8914999999999997</v>
+      </c>
+      <c r="C165" s="3">
+        <v>15.6976</v>
+      </c>
+      <c r="D165" s="3">
+        <v>33.075600000000001</v>
+      </c>
+      <c r="E165" s="3">
+        <v>78.038399999999996</v>
+      </c>
+      <c r="F165" s="3">
+        <v>91.966300000000004</v>
+      </c>
+      <c r="G165" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H165" s="3">
+        <v>42755.040000000001</v>
+      </c>
+      <c r="I165" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J165" s="3">
+        <v>4686.8599999999997</v>
+      </c>
+      <c r="K165" s="3">
+        <v>38068.18</v>
+      </c>
+      <c r="L165" s="3">
+        <v>-0.2228</v>
+      </c>
+      <c r="M165" s="3">
+        <v>678.489990234375</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="D166" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="E166" s="3">
+        <v>7.41</v>
+      </c>
+      <c r="F166" s="3">
+        <v>12.778</v>
+      </c>
+      <c r="G166" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H166" s="3">
+        <v>57116.639999999999</v>
+      </c>
+      <c r="I166" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J166" s="3">
+        <v>3519.9</v>
+      </c>
+      <c r="K166" s="3">
+        <v>53596.74</v>
+      </c>
+      <c r="L166" s="3">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="M166" s="3">
+        <v>101.889999389648</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="F167" s="3">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="G167" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H167" s="3">
+        <v>55989.279999999999</v>
+      </c>
+      <c r="I167" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J167" s="3">
+        <v>3697.94</v>
+      </c>
+      <c r="K167" s="3">
+        <v>52291.34</v>
+      </c>
+      <c r="L167" s="3">
+        <v>1.6241000000000001</v>
+      </c>
+      <c r="M167" s="3">
+        <v>11.189999580383301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="C168" s="3">
+        <v>3.27</v>
+      </c>
+      <c r="D168" s="3">
+        <v>6.69</v>
+      </c>
+      <c r="E168" s="3">
+        <v>13.55</v>
+      </c>
+      <c r="F168" s="3">
+        <v>79.47</v>
+      </c>
+      <c r="G168" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H168" s="3">
+        <v>53989.54</v>
+      </c>
+      <c r="I168" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J168" s="3">
+        <v>6331.69</v>
+      </c>
+      <c r="K168" s="3">
+        <v>47657.86</v>
+      </c>
+      <c r="L168" s="3">
+        <v>0.748</v>
+      </c>
+      <c r="M168" s="3">
+        <v>122.949996948242</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1.8208</v>
+      </c>
+      <c r="D175" s="3">
+        <v>4.3319000000000001</v>
+      </c>
+      <c r="E175" s="3">
+        <v>10.828200000000001</v>
+      </c>
+      <c r="F175" s="3">
+        <v>22.486599999999999</v>
+      </c>
+      <c r="G175" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H175" s="3">
+        <v>57897.74</v>
+      </c>
+      <c r="I175" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J175" s="3">
+        <v>5041.1400000000003</v>
+      </c>
+      <c r="K175" s="3">
+        <v>52856.6</v>
+      </c>
+      <c r="L175" s="3">
+        <v>2.4603000000000002</v>
+      </c>
+      <c r="M175" s="3">
+        <v>105.400001525878</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" s="3">
+        <v>1.3793</v>
+      </c>
+      <c r="C176" s="3">
+        <v>4.1379000000000001</v>
+      </c>
+      <c r="D176" s="3">
+        <v>8.2759</v>
+      </c>
+      <c r="E176" s="3">
+        <v>16.5517</v>
+      </c>
+      <c r="F176" s="3">
+        <v>1.3793</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M176" s="3">
+        <v>123.620002746582</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="E177" s="3">
+        <v>3.8439000000000001</v>
+      </c>
+      <c r="F177" s="3">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="G177" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H177" s="3">
+        <v>51760.22</v>
+      </c>
+      <c r="I177" s="3">
+        <v>51124.9</v>
+      </c>
+      <c r="J177" s="3">
+        <v>960.22</v>
+      </c>
+      <c r="K177" s="3">
+        <v>50800</v>
+      </c>
+      <c r="L177" s="3">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="M177" s="3">
+        <v>105.169998168945</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179" s="3">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1.4287000000000001</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2.4771000000000001</v>
+      </c>
+      <c r="E179" s="3">
+        <v>4.3441999999999998</v>
+      </c>
+      <c r="F179" s="3">
+        <v>90.601200000000006</v>
+      </c>
+      <c r="G179" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H179" s="3">
+        <v>47430.28</v>
+      </c>
+      <c r="I179" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J179" s="3">
+        <v>3220.28</v>
+      </c>
+      <c r="K179" s="3">
+        <v>44210</v>
+      </c>
+      <c r="L179" s="3">
+        <v>-0.1023</v>
+      </c>
+      <c r="M179" s="3">
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180" s="3">
+        <v>4.3539000000000003</v>
+      </c>
+      <c r="C180" s="3">
+        <v>4.3539000000000003</v>
+      </c>
+      <c r="D180" s="3">
+        <v>4.3539000000000003</v>
+      </c>
+      <c r="E180" s="3">
+        <v>11.459099999999999</v>
+      </c>
+      <c r="F180" s="3">
+        <v>72.4191</v>
+      </c>
+      <c r="G180" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H180" s="3">
+        <v>63874.14</v>
+      </c>
+      <c r="I180" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J180" s="3">
+        <v>5280.73</v>
+      </c>
+      <c r="K180" s="3">
+        <v>58593.41</v>
+      </c>
+      <c r="L180" s="3">
+        <v>5.0787000000000004</v>
+      </c>
+      <c r="M180" s="3">
+        <v>107.980003356933</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="3">
+        <v>0.62370000000000003</v>
+      </c>
+      <c r="C183" s="3">
+        <v>7.3681999999999999</v>
+      </c>
+      <c r="D183" s="3">
+        <v>14.382400000000001</v>
+      </c>
+      <c r="E183" s="3">
+        <v>44.147500000000001</v>
+      </c>
+      <c r="F183" s="3">
+        <v>1004.1502</v>
+      </c>
+      <c r="G183" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H183" s="3">
+        <v>39106.65</v>
+      </c>
+      <c r="I183" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J183" s="3">
+        <v>8906.5499999999993</v>
+      </c>
+      <c r="K183" s="3">
+        <v>30200.1</v>
+      </c>
+      <c r="L183" s="3">
+        <v>-0.33689999999999998</v>
+      </c>
+      <c r="M183" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="3">
+        <v>0.25829999999999997</v>
+      </c>
+      <c r="C184" s="3">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1.1997</v>
+      </c>
+      <c r="E184" s="3">
+        <v>2.3071999999999999</v>
+      </c>
+      <c r="F184" s="3">
+        <v>51.498399999999997</v>
+      </c>
+      <c r="G184" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H184" s="3">
+        <v>57390.19</v>
+      </c>
+      <c r="I184" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J184" s="3">
+        <v>2627.18</v>
+      </c>
+      <c r="K184" s="3">
+        <v>54763.01</v>
+      </c>
+      <c r="L184" s="3">
+        <v>2.2378999999999998</v>
+      </c>
+      <c r="M184" s="3">
+        <v>48.799999237060497</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M185" s="3">
+        <v>107.980003356933</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0.5141</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1.5685</v>
+      </c>
+      <c r="D187" s="3">
+        <v>3.1564000000000001</v>
+      </c>
+      <c r="E187" s="3">
+        <v>8.9923999999999999</v>
+      </c>
+      <c r="F187" s="3">
+        <v>64.733599999999996</v>
+      </c>
+      <c r="G187" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H187" s="3">
+        <v>69899.16</v>
+      </c>
+      <c r="I187" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J187" s="3">
+        <v>4861.18</v>
+      </c>
+      <c r="K187" s="3">
+        <v>65037.98</v>
+      </c>
+      <c r="L187" s="3">
+        <v>7.7184999999999997</v>
+      </c>
+      <c r="M187" s="3">
+        <v>108.800003051757</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="3">
+        <v>0</v>
+      </c>
+      <c r="C190" s="3">
+        <v>0</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>205.00839999999999</v>
+      </c>
+      <c r="G190" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H190" s="3">
+        <v>39793.65</v>
+      </c>
+      <c r="I190" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J190" s="3">
+        <v>0</v>
+      </c>
+      <c r="K190" s="3">
+        <v>39793.65</v>
+      </c>
+      <c r="L190" s="3">
+        <v>-0.31380000000000002</v>
+      </c>
+      <c r="M190" s="3">
+        <v>503.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="3">
+        <v>10.58</v>
+      </c>
+      <c r="C191" s="3">
+        <v>10.9124</v>
+      </c>
+      <c r="D191" s="3">
+        <v>11.422599999999999</v>
+      </c>
+      <c r="E191" s="3">
+        <v>13.1487</v>
+      </c>
+      <c r="F191" s="3">
+        <v>50.048699999999997</v>
+      </c>
+      <c r="G191" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H191" s="3">
+        <v>55711.4</v>
+      </c>
+      <c r="I191" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J191" s="3">
+        <v>9570.0300000000007</v>
+      </c>
+      <c r="K191" s="3">
+        <v>46141.37</v>
+      </c>
+      <c r="L191" s="3">
+        <v>1.5024</v>
+      </c>
+      <c r="M191" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="3">
+        <v>0</v>
+      </c>
+      <c r="C193" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D193" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="E193" s="3">
+        <v>32.25</v>
+      </c>
+      <c r="F193" s="3">
+        <v>562.53099999999995</v>
+      </c>
+      <c r="G193" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H193" s="3">
+        <v>18059.73</v>
+      </c>
+      <c r="I193" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J193" s="3">
+        <v>7309.69</v>
+      </c>
+      <c r="K193" s="3">
+        <v>10750.04</v>
+      </c>
+      <c r="L193" s="3">
+        <v>-1.895</v>
+      </c>
+      <c r="M193" s="3">
+        <v>26.9799995422363</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C194" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E194" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F194" s="3">
+        <v>47.310299999999998</v>
+      </c>
+      <c r="G194" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H194" s="3">
+        <v>42004.14</v>
+      </c>
+      <c r="I194" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J194" s="3">
+        <v>4132.08</v>
+      </c>
+      <c r="K194" s="3">
+        <v>37872.06</v>
+      </c>
+      <c r="L194" s="3">
+        <v>-0.2447</v>
+      </c>
+      <c r="M194" s="3">
+        <v>39.790000915527301</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C195" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="E195" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F195" s="3">
+        <v>47.058999999999997</v>
+      </c>
+      <c r="G195" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H195" s="3">
+        <v>53075.56</v>
+      </c>
+      <c r="I195" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J195" s="3">
+        <v>3010.58</v>
+      </c>
+      <c r="K195" s="3">
+        <v>50064.98</v>
+      </c>
+      <c r="L195" s="3">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="M195" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="C196" s="3">
+        <v>2.79</v>
+      </c>
+      <c r="D196" s="3">
+        <v>5.54</v>
+      </c>
+      <c r="E196" s="3">
+        <v>10.84</v>
+      </c>
+      <c r="F196" s="3">
+        <v>64.073999999999998</v>
+      </c>
+      <c r="G196" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H196" s="3">
+        <v>65265.96</v>
+      </c>
+      <c r="I196" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J196" s="3">
+        <v>4302.05</v>
+      </c>
+      <c r="K196" s="3">
+        <v>60963.91</v>
+      </c>
+      <c r="L196" s="3">
+        <v>5.6885000000000003</v>
+      </c>
+      <c r="M196" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197" s="3">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="C197" s="3">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1.8291999999999999</v>
+      </c>
+      <c r="E197" s="3">
+        <v>3.6583999999999999</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0.60970000000000002</v>
+      </c>
+      <c r="G197" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H197" s="3">
+        <v>49756.46</v>
+      </c>
+      <c r="I197" s="3">
+        <v>50372.19</v>
+      </c>
+      <c r="J197" s="3">
+        <v>306.45999999999998</v>
+      </c>
+      <c r="K197" s="3">
+        <v>49450</v>
+      </c>
+      <c r="L197" s="3">
+        <v>-1.24E-2</v>
+      </c>
+      <c r="M197" s="3">
+        <v>93.400001525878906</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="D199" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="E199" s="3">
+        <v>4.9949000000000003</v>
+      </c>
+      <c r="F199" s="3">
+        <v>56.204099999999997</v>
+      </c>
+      <c r="G199" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H199" s="3">
+        <v>78925.75</v>
+      </c>
+      <c r="I199" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J199" s="3">
+        <v>2943.54</v>
+      </c>
+      <c r="K199" s="3">
+        <v>75982.210000000006</v>
+      </c>
+      <c r="L199" s="3">
+        <v>11.673400000000001</v>
+      </c>
+      <c r="M199" s="3">
+        <v>101.559997558593</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M200" s="3">
+        <v>1198.46997070312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="D201" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="E201" s="3">
+        <v>7.26</v>
+      </c>
+      <c r="F201" s="3">
+        <v>54.5383</v>
+      </c>
+      <c r="G201" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H201" s="3">
+        <v>61163.16</v>
+      </c>
+      <c r="I201" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J201" s="3">
+        <v>4374.8</v>
+      </c>
+      <c r="K201" s="3">
+        <v>56788.36</v>
+      </c>
+      <c r="L201" s="3">
+        <v>3.891</v>
+      </c>
+      <c r="M201" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M202" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206" s="3">
+        <v>0</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>24.209800000000001</v>
+      </c>
+      <c r="G206" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H206" s="3">
+        <v>31017.06</v>
+      </c>
+      <c r="I206" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J206" s="3">
+        <v>0</v>
+      </c>
+      <c r="K206" s="3">
+        <v>31017.06</v>
+      </c>
+      <c r="L206" s="3">
+        <v>-0.68559999999999999</v>
+      </c>
+      <c r="M206" s="3">
+        <v>8.5799999237060494</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1.1808000000000001</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2.3957000000000002</v>
+      </c>
+      <c r="E208" s="3">
+        <v>4.665</v>
+      </c>
+      <c r="F208" s="3">
+        <v>74.198599999999999</v>
+      </c>
+      <c r="G208" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H208" s="3">
+        <v>71646.5</v>
+      </c>
+      <c r="I208" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J208" s="3">
+        <v>2483.4299999999998</v>
+      </c>
+      <c r="K208" s="3">
+        <v>69163.070000000007</v>
+      </c>
+      <c r="L208" s="3">
+        <v>8.4840999999999998</v>
+      </c>
+      <c r="M208" s="3">
+        <v>104.59999847412099</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="C210" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D210" s="3">
+        <v>4.5509000000000004</v>
+      </c>
+      <c r="E210" s="3">
+        <v>9.2850999999999999</v>
+      </c>
+      <c r="F210" s="3">
+        <v>8.5113000000000003</v>
+      </c>
+      <c r="G210" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H210" s="3">
+        <v>56365.27</v>
+      </c>
+      <c r="I210" s="3">
+        <v>52081.63</v>
+      </c>
+      <c r="J210" s="3">
+        <v>4143.05</v>
+      </c>
+      <c r="K210" s="3">
+        <v>52222.21</v>
+      </c>
+      <c r="L210" s="3">
+        <v>2.0577999999999999</v>
+      </c>
+      <c r="M210" s="3">
+        <v>102.58000183105401</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="C212" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="D212" s="3">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E212" s="3">
+        <v>7.9610000000000003</v>
+      </c>
+      <c r="F212" s="3">
+        <v>6.6341999999999999</v>
+      </c>
+      <c r="G212" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H212" s="3">
+        <v>63207.839999999997</v>
+      </c>
+      <c r="I212" s="3">
+        <v>51696.81</v>
+      </c>
+      <c r="J212" s="3">
+        <v>2957.84</v>
+      </c>
+      <c r="K212" s="3">
+        <v>60250</v>
+      </c>
+      <c r="L212" s="3">
+        <v>6.7839</v>
+      </c>
+      <c r="M212" s="3">
+        <v>117.52999877929599</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="C213" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D213" s="3">
+        <v>4.09</v>
+      </c>
+      <c r="E213" s="3">
+        <v>7.7210000000000001</v>
+      </c>
+      <c r="F213" s="3">
+        <v>14.430999999999999</v>
+      </c>
+      <c r="G213" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H213" s="3">
+        <v>68968.36</v>
+      </c>
+      <c r="I213" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J213" s="3">
+        <v>3526.27</v>
+      </c>
+      <c r="K213" s="3">
+        <v>65442.09</v>
+      </c>
+      <c r="L213" s="3">
+        <v>7.3106999999999998</v>
+      </c>
+      <c r="M213" s="3">
+        <v>123.19000244140599</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="C214" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="E214" s="3">
+        <v>5.01</v>
+      </c>
+      <c r="F214" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G214" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H214" s="3">
+        <v>53330.239999999998</v>
+      </c>
+      <c r="I214" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J214" s="3">
+        <v>2806.01</v>
+      </c>
+      <c r="K214" s="3">
+        <v>50524.23</v>
+      </c>
+      <c r="L214" s="3">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="M214" s="3">
+        <v>85.720001220703097</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B216" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="C216" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D216" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E216" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="F216" s="3">
+        <v>62.188000000000002</v>
+      </c>
+      <c r="G216" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H216" s="3">
+        <v>37328.6</v>
+      </c>
+      <c r="I216" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J216" s="3">
+        <v>6088.6</v>
+      </c>
+      <c r="K216" s="3">
+        <v>31240</v>
+      </c>
+      <c r="L216" s="3">
+        <v>-0.40060000000000001</v>
+      </c>
+      <c r="M216" s="3">
+        <v>57.959999084472599</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0.46560000000000001</v>
+      </c>
+      <c r="C218" s="3">
+        <v>1.6656</v>
+      </c>
+      <c r="D218" s="3">
+        <v>3.1958000000000002</v>
+      </c>
+      <c r="E218" s="3">
+        <v>6.3916000000000004</v>
+      </c>
+      <c r="F218" s="3">
+        <v>3.1958000000000002</v>
+      </c>
+      <c r="G218" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H218" s="3">
+        <v>54272.39</v>
+      </c>
+      <c r="I218" s="3">
+        <v>51124.9</v>
+      </c>
+      <c r="J218" s="3">
+        <v>1527.39</v>
+      </c>
+      <c r="K218" s="3">
+        <v>52745</v>
+      </c>
+      <c r="L218" s="3">
+        <v>2.798</v>
+      </c>
+      <c r="M218" s="3">
+        <v>103.980003356933</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="C219" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="D219" s="3">
+        <v>4.24</v>
+      </c>
+      <c r="E219" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="F219" s="3">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G219" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H219" s="3">
+        <v>57023.14</v>
+      </c>
+      <c r="I219" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J219" s="3">
+        <v>3598.74</v>
+      </c>
+      <c r="K219" s="3">
+        <v>53424.41</v>
+      </c>
+      <c r="L219" s="3">
+        <v>2.0771000000000002</v>
+      </c>
+      <c r="M219" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="C220" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="D220" s="3">
+        <v>3.73</v>
+      </c>
+      <c r="E220" s="3">
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="F220" s="3">
+        <v>9.2971000000000004</v>
+      </c>
+      <c r="G220" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H220" s="3">
+        <v>63154.41</v>
+      </c>
+      <c r="I220" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J220" s="3">
+        <v>3762.48</v>
+      </c>
+      <c r="K220" s="3">
+        <v>59391.93</v>
+      </c>
+      <c r="L220" s="3">
+        <v>4.7633999999999999</v>
+      </c>
+      <c r="M220" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C221" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="D221" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="E221" s="3">
+        <v>7.1241000000000003</v>
+      </c>
+      <c r="F221" s="3">
+        <v>10.9298</v>
+      </c>
+      <c r="G221" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H221" s="3">
+        <v>67470.86</v>
+      </c>
+      <c r="I221" s="3">
+        <v>52282.400000000001</v>
+      </c>
+      <c r="J221" s="3">
+        <v>3350.89</v>
+      </c>
+      <c r="K221" s="3">
+        <v>64119.97</v>
+      </c>
+      <c r="L221" s="3">
+        <v>6.6546000000000003</v>
+      </c>
+      <c r="M221" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M223" s="3">
+        <v>1000.02001953125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
